--- a/data/consolidado.xlsx
+++ b/data/consolidado.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\Desktop\buscador\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BFD25-0E54-4BA9-B93E-62E2A45723D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5CFCE-F797-425F-B22D-6804D700A135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="780" windowWidth="28230" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1515" windowWidth="28230" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="prestaciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1368,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1378,7 +1378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,8 +1666,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="15.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
